--- a/Assets/Excel/004_Stage.xlsx
+++ b/Assets/Excel/004_Stage.xlsx
@@ -339,15 +339,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0,15,19,21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1,3,7,8,9</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4,10,13,16,18</t>
+    <t>0,15,8,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,10,13,15,9</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="16.5"/>
@@ -1100,7 +1100,7 @@
         <v>1001</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1111,7 +1111,7 @@
         <v>1002</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3">

--- a/Assets/Excel/004_Stage.xlsx
+++ b/Assets/Excel/004_Stage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="StageDataInUnity" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="101">
   <si>
     <t>int</t>
   </si>
@@ -272,9 +272,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,2,3,3</t>
-  </si>
-  <si>
     <t>3,3,3</t>
   </si>
   <si>
@@ -339,15 +336,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,3,7,8,9</t>
+    <t>0,1,2,3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0,15,8,10</t>
+    <t>4,5,6,7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4,10,13,15,9</t>
+    <t>8,9,10,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,14,15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -868,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="16.5"/>
@@ -916,10 +921,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D2" s="13">
         <v>100</v>
@@ -945,7 +950,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="13">
         <v>50</v>
@@ -971,7 +976,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="13">
         <v>50</v>
@@ -997,7 +1002,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="13">
         <v>50</v>
@@ -1023,7 +1028,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="13">
         <v>50</v>
@@ -1050,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="16.5"/>
@@ -1086,10 +1091,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1100,7 +1105,7 @@
         <v>1001</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1122,6 +1127,17 @@
         <v>1003</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18">
+        <v>1004</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1158,16 +1174,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>88</v>
-      </c>
       <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>0</v>
@@ -1190,10 +1206,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>3</v>
@@ -1222,10 +1238,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>11</v>
@@ -1254,14 +1270,14 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17">
         <v>3</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" s="17">
         <v>100</v>
@@ -1284,14 +1300,14 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17">
         <v>5</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="17">
         <v>100</v>
@@ -1319,7 +1335,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="17">
         <v>100</v>

--- a/Assets/Excel/004_Stage.xlsx
+++ b/Assets/Excel/004_Stage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StageDataInUnity" sheetId="4" r:id="rId1"/>
@@ -873,7 +873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1057,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="16.5"/>
@@ -1102,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="18">
-        <v>1001</v>
+        <v>101</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>96</v>
@@ -1113,7 +1113,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18">
-        <v>1002</v>
+        <v>102</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>97</v>
@@ -1124,7 +1124,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="18">
-        <v>1003</v>
+        <v>103</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>98</v>
@@ -1135,7 +1135,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="18">
-        <v>1004</v>
+        <v>104</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>99</v>
@@ -1144,6 +1144,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Assets/Excel/004_Stage.xlsx
+++ b/Assets/Excel/004_Stage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="StageDataInUnity" sheetId="4" r:id="rId1"/>
@@ -336,23 +336,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0,1,2,3</t>
+    <t>1,2,3,4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4,5,6,7</t>
+    <t>0,4,8,12</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>8,9,10,11</t>
+    <t>2,6,10,14</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12,13,14,15</t>
+    <t>3,7,11,15</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4</t>
+    <t>1,5,9,13</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="16.5"/>
@@ -924,7 +924,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D2" s="13">
         <v>100</v>
@@ -1057,33 +1057,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1105,7 +1103,7 @@
         <v>101</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1116,7 +1114,7 @@
         <v>102</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1152,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.125" defaultRowHeight="15.75"/>
@@ -1450,7 +1448,7 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="15.75"/>

--- a/Assets/Excel/004_Stage.xlsx
+++ b/Assets/Excel/004_Stage.xlsx
@@ -874,7 +874,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="16.5"/>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="16.5"/>
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.125" defaultRowHeight="15.75"/>

--- a/Assets/Excel/004_Stage.xlsx
+++ b/Assets/Excel/004_Stage.xlsx
@@ -9,16 +9,17 @@
   <sheets>
     <sheet name="StageDataInUnity" sheetId="4" r:id="rId1"/>
     <sheet name="RoundGroupInUnity" sheetId="5" r:id="rId2"/>
-    <sheet name="StageData" sheetId="1" r:id="rId3"/>
-    <sheet name="RoundGroup" sheetId="2" r:id="rId4"/>
-    <sheet name="#欄位說明" sheetId="3" r:id="rId5"/>
+    <sheet name="#企劃用參數" sheetId="6" r:id="rId3"/>
+    <sheet name="StageData" sheetId="1" r:id="rId4"/>
+    <sheet name="RoundGroup" sheetId="2" r:id="rId5"/>
+    <sheet name="#欄位說明" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="115">
   <si>
     <t>int</t>
   </si>
@@ -336,23 +337,79 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,4,8,12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,6,10,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,7,11,15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,5,9,13</t>
+    <t>0,5,10,15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>產怪用隨機</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>組別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排列組合後</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>數字用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亂數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,6,9,12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,9,6,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,7,11,15,6,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5,9,7,11,15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,6,11,15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,14,4,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,12,7,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,5,10,15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,15</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -874,14 +931,14 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="12" bestFit="1" customWidth="1"/>
@@ -921,10 +978,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D2" s="13">
         <v>100</v>
@@ -1055,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="16.5"/>
@@ -1103,7 +1160,7 @@
         <v>101</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1114,7 +1171,7 @@
         <v>102</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1125,7 +1182,7 @@
         <v>103</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1136,7 +1193,73 @@
         <v>104</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>99</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18">
+        <v>105</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18">
+        <v>106</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18">
+        <v>107</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18">
+        <v>108</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18">
+        <v>109</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18">
+        <v>110</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1147,6 +1270,590 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R27"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10:O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="11.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="15"/>
+    <col min="3" max="3" width="16.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="5.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="15"/>
+    <col min="9" max="9" width="5.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="B2" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15">
+        <f ca="1">INDEX($I$2:$I$17,RANK(J2,$J$2:$J$17))</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="15">
+        <f ca="1">IF(COUNTIF(E$2:E2,E2)=1,F2,LOOKUP(1,0/(E$1:E1=E2),G$1:G1)&amp;","&amp;F2)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="15">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15">
+        <f ca="1">RAND()</f>
+        <v>0.70294385083400901</v>
+      </c>
+      <c r="L2" s="15">
+        <v>0</v>
+      </c>
+      <c r="M2" s="15">
+        <f ca="1">RAND()</f>
+        <v>0.55477048098262061</v>
+      </c>
+      <c r="O2" s="17">
+        <v>0</v>
+      </c>
+      <c r="P2" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>2</v>
+      </c>
+      <c r="R2" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="B3" s="17">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="str">
+        <f t="shared" ref="C3:C12" ca="1" si="0">LOOKUP(1,0/(E:E=B3),G:G)</f>
+        <v>1,5,9,6</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15">
+        <f t="shared" ref="F3:F5" ca="1" si="1">INDEX($I$2:$I$17,RANK(J3,$J$2:$J$17))</f>
+        <v>5</v>
+      </c>
+      <c r="G3" s="15" t="str">
+        <f ca="1">IF(COUNTIF(E$2:E3,E3)=1,F3,LOOKUP(1,0/(E$1:E2=E3),G$1:G2)&amp;","&amp;F3)</f>
+        <v>1,5</v>
+      </c>
+      <c r="I3" s="15">
+        <v>1</v>
+      </c>
+      <c r="J3" s="15">
+        <f t="shared" ref="J3:J17" ca="1" si="2">RAND()</f>
+        <v>0.5330625275944636</v>
+      </c>
+      <c r="L3" s="15">
+        <v>1</v>
+      </c>
+      <c r="M3" s="15">
+        <f t="shared" ref="M3:M17" ca="1" si="3">RAND()</f>
+        <v>0.84189085548652354</v>
+      </c>
+      <c r="O3" s="17">
+        <v>4</v>
+      </c>
+      <c r="P3" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>6</v>
+      </c>
+      <c r="R3" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="B4" s="17">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>10,4,12,9</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G4" s="15" t="str">
+        <f ca="1">IF(COUNTIF(E$2:E4,E4)=1,F4,LOOKUP(1,0/(E$1:E3=E4),G$1:G3)&amp;","&amp;F4)</f>
+        <v>1,5,9</v>
+      </c>
+      <c r="I4" s="15">
+        <v>2</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.26555218259798319</v>
+      </c>
+      <c r="L4" s="15">
+        <v>2</v>
+      </c>
+      <c r="M4" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.35550329269571823</v>
+      </c>
+      <c r="O4" s="17">
+        <v>8</v>
+      </c>
+      <c r="P4" s="17">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>10</v>
+      </c>
+      <c r="R4" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="B5" s="17">
+        <v>3</v>
+      </c>
+      <c r="C5" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G5" s="15" t="str">
+        <f ca="1">IF(COUNTIF(E$2:E5,E5)=1,F5,LOOKUP(1,0/(E$1:E4=E5),G$1:G4)&amp;","&amp;F5)</f>
+        <v>1,5,9,6</v>
+      </c>
+      <c r="I5" s="15">
+        <v>3</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.48869866054168409</v>
+      </c>
+      <c r="L5" s="15">
+        <v>3</v>
+      </c>
+      <c r="M5" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.62937592589192737</v>
+      </c>
+      <c r="O5" s="17">
+        <v>12</v>
+      </c>
+      <c r="P5" s="17">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>14</v>
+      </c>
+      <c r="R5" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="B6" s="17">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="15">
+        <v>4</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.19102129523602163</v>
+      </c>
+      <c r="L6" s="15">
+        <v>4</v>
+      </c>
+      <c r="M6" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.93046077171672092</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="B7" s="17">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>2</v>
+      </c>
+      <c r="F7" s="15">
+        <f ca="1">INDEX($L$2:$L$17,RANK(M2,$M$2:$M$17))</f>
+        <v>10</v>
+      </c>
+      <c r="G7" s="15">
+        <f ca="1">IF(COUNTIF(E$2:E7,E7)=1,F7,LOOKUP(1,0/(E$1:E6=E7),G$1:G6)&amp;","&amp;F7)</f>
+        <v>10</v>
+      </c>
+      <c r="I7" s="15">
+        <v>5</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.44611483787899964</v>
+      </c>
+      <c r="L7" s="15">
+        <v>5</v>
+      </c>
+      <c r="M7" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.18441532591893506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="B8" s="17">
+        <v>6</v>
+      </c>
+      <c r="C8" s="17" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E8" s="15">
+        <v>2</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" ref="F8:F10" ca="1" si="4">INDEX($L$2:$L$17,RANK(M3,$M$2:$M$17))</f>
+        <v>4</v>
+      </c>
+      <c r="G8" s="15" t="str">
+        <f ca="1">IF(COUNTIF(E$2:E8,E8)=1,F8,LOOKUP(1,0/(E$1:E7=E8),G$1:G7)&amp;","&amp;F8)</f>
+        <v>10,4</v>
+      </c>
+      <c r="I8" s="15">
+        <v>6</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.66107646052514768</v>
+      </c>
+      <c r="L8" s="15">
+        <v>6</v>
+      </c>
+      <c r="M8" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.80912763151719413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="B9" s="17">
+        <v>7</v>
+      </c>
+      <c r="C9" s="17" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E9" s="15">
+        <v>2</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="G9" s="15" t="str">
+        <f ca="1">IF(COUNTIF(E$2:E9,E9)=1,F9,LOOKUP(1,0/(E$1:E8=E9),G$1:G8)&amp;","&amp;F9)</f>
+        <v>10,4,12</v>
+      </c>
+      <c r="I9" s="15">
+        <v>7</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.69349321828800359</v>
+      </c>
+      <c r="L9" s="15">
+        <v>7</v>
+      </c>
+      <c r="M9" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.23701786932924118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="B10" s="17">
+        <v>8</v>
+      </c>
+      <c r="C10" s="17" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="15">
+        <v>2</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G10" s="15" t="str">
+        <f ca="1">IF(COUNTIF(E$2:E10,E10)=1,F10,LOOKUP(1,0/(E$1:E9=E10),G$1:G9)&amp;","&amp;F10)</f>
+        <v>10,4,12,9</v>
+      </c>
+      <c r="I10" s="15">
+        <v>8</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.92534355499114973</v>
+      </c>
+      <c r="L10" s="15">
+        <v>8</v>
+      </c>
+      <c r="M10" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.45104332374560063</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="B11" s="17">
+        <v>9</v>
+      </c>
+      <c r="C11" s="17" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I11" s="15">
+        <v>9</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.58645746409042165</v>
+      </c>
+      <c r="L11" s="15">
+        <v>9</v>
+      </c>
+      <c r="M11" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.76047771608043435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="B12" s="17">
+        <v>10</v>
+      </c>
+      <c r="C12" s="17" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="15">
+        <v>3</v>
+      </c>
+      <c r="I12" s="15">
+        <v>10</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.38797883889297413</v>
+      </c>
+      <c r="L12" s="15">
+        <v>10</v>
+      </c>
+      <c r="M12" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.84279989974102987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="E13" s="15">
+        <v>3</v>
+      </c>
+      <c r="I13" s="15">
+        <v>11</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2527683510966473</v>
+      </c>
+      <c r="L13" s="15">
+        <v>11</v>
+      </c>
+      <c r="M13" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.63168307238291421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="E14" s="15">
+        <v>3</v>
+      </c>
+      <c r="I14" s="15">
+        <v>12</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.10854522242111209</v>
+      </c>
+      <c r="L14" s="15">
+        <v>12</v>
+      </c>
+      <c r="M14" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.3693898386326135E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="E15" s="15">
+        <v>3</v>
+      </c>
+      <c r="I15" s="15">
+        <v>13</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.5723443786280802E-3</v>
+      </c>
+      <c r="L15" s="15">
+        <v>13</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.93582812692536099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="I16" s="15">
+        <v>14</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0003898196636718E-2</v>
+      </c>
+      <c r="L16" s="15">
+        <v>14</v>
+      </c>
+      <c r="M16" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.85152013469894849</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13">
+      <c r="E17" s="15">
+        <v>4</v>
+      </c>
+      <c r="I17" s="15">
+        <v>15</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.5509824399752059E-3</v>
+      </c>
+      <c r="L17" s="15">
+        <v>15</v>
+      </c>
+      <c r="M17" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.70864197515218963</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13">
+      <c r="E18" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13">
+      <c r="E19" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13">
+      <c r="E20" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13">
+      <c r="E21" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13">
+      <c r="E23" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13">
+      <c r="E24" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13">
+      <c r="E25" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13">
+      <c r="E26" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13">
+      <c r="E27" s="15">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
@@ -1443,7 +2150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U11"/>
   <sheetViews>
@@ -2199,7 +2906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>

--- a/Assets/Excel/004_Stage.xlsx
+++ b/Assets/Excel/004_Stage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StageDataInUnity" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="114">
   <si>
     <t>int</t>
   </si>
@@ -337,14 +337,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0,5,10,15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>產怪用隨機</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -377,22 +369,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3,6,9,12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,9,6,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,7,11,15,6,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,5,9,7,11,15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2,6,11,15</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -410,6 +386,26 @@
   </si>
   <si>
     <t>3,15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,12</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -569,7 +565,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -621,6 +617,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -930,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="16.5"/>
@@ -978,10 +977,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D2" s="13">
         <v>100</v>
@@ -1114,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="16.5"/>
@@ -1159,8 +1158,8 @@
       <c r="B2" s="18">
         <v>101</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>96</v>
+      <c r="C2" s="19" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1170,8 +1169,8 @@
       <c r="B3" s="18">
         <v>102</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>106</v>
+      <c r="C3" s="19" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1181,8 +1180,8 @@
       <c r="B4" s="18">
         <v>103</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>107</v>
+      <c r="C4" s="19" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1192,8 +1191,8 @@
       <c r="B5" s="18">
         <v>104</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>108</v>
+      <c r="C5" s="19" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1203,8 +1202,8 @@
       <c r="B6" s="18">
         <v>105</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>109</v>
+      <c r="C6" s="19" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1214,8 +1213,8 @@
       <c r="B7" s="18">
         <v>106</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>110</v>
+      <c r="C7" s="19" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1225,8 +1224,8 @@
       <c r="B8" s="18">
         <v>107</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>111</v>
+      <c r="C8" s="19" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1236,8 +1235,8 @@
       <c r="B9" s="18">
         <v>108</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>112</v>
+      <c r="C9" s="19" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1247,8 +1246,8 @@
       <c r="B10" s="18">
         <v>109</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>113</v>
+      <c r="C10" s="19" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1258,8 +1257,8 @@
       <c r="B11" s="18">
         <v>110</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>114</v>
+      <c r="C11" s="19" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1294,61 +1293,61 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E1" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>104</v>
-      </c>
       <c r="M1" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="B2" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E2" s="15">
         <v>1</v>
       </c>
       <c r="F2" s="15">
         <f ca="1">INDEX($I$2:$I$17,RANK(J2,$J$2:$J$17))</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G2" s="15">
         <f ca="1">IF(COUNTIF(E$2:E2,E2)=1,F2,LOOKUP(1,0/(E$1:E1=E2),G$1:G1)&amp;","&amp;F2)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I2" s="15">
         <v>0</v>
       </c>
       <c r="J2" s="15">
         <f ca="1">RAND()</f>
-        <v>0.70294385083400901</v>
+        <v>0.29687918728286034</v>
       </c>
       <c r="L2" s="15">
         <v>0</v>
       </c>
       <c r="M2" s="15">
         <f ca="1">RAND()</f>
-        <v>0.55477048098262061</v>
+        <v>2.3954574998742428E-3</v>
       </c>
       <c r="O2" s="17">
         <v>0</v>
@@ -1369,32 +1368,32 @@
       </c>
       <c r="C3" s="17" t="str">
         <f t="shared" ref="C3:C12" ca="1" si="0">LOOKUP(1,0/(E:E=B3),G:G)</f>
-        <v>1,5,9,6</v>
+        <v>11,10,0,13</v>
       </c>
       <c r="E3" s="15">
         <v>1</v>
       </c>
       <c r="F3" s="15">
         <f t="shared" ref="F3:F5" ca="1" si="1">INDEX($I$2:$I$17,RANK(J3,$J$2:$J$17))</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G3" s="15" t="str">
         <f ca="1">IF(COUNTIF(E$2:E3,E3)=1,F3,LOOKUP(1,0/(E$1:E2=E3),G$1:G2)&amp;","&amp;F3)</f>
-        <v>1,5</v>
+        <v>11,10</v>
       </c>
       <c r="I3" s="15">
         <v>1</v>
       </c>
       <c r="J3" s="15">
         <f t="shared" ref="J3:J17" ca="1" si="2">RAND()</f>
-        <v>0.5330625275944636</v>
+        <v>0.34218809068894263</v>
       </c>
       <c r="L3" s="15">
         <v>1</v>
       </c>
       <c r="M3" s="15">
         <f t="shared" ref="M3:M17" ca="1" si="3">RAND()</f>
-        <v>0.84189085548652354</v>
+        <v>0.26955556023844873</v>
       </c>
       <c r="O3" s="17">
         <v>4</v>
@@ -1415,32 +1414,32 @@
       </c>
       <c r="C4" s="17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10,4,12,9</v>
+        <v>15,13,11,14</v>
       </c>
       <c r="E4" s="15">
         <v>1</v>
       </c>
       <c r="F4" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G4" s="15" t="str">
         <f ca="1">IF(COUNTIF(E$2:E4,E4)=1,F4,LOOKUP(1,0/(E$1:E3=E4),G$1:G3)&amp;","&amp;F4)</f>
-        <v>1,5,9</v>
+        <v>11,10,0</v>
       </c>
       <c r="I4" s="15">
         <v>2</v>
       </c>
       <c r="J4" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26555218259798319</v>
+        <v>0.95853608209690822</v>
       </c>
       <c r="L4" s="15">
         <v>2</v>
       </c>
       <c r="M4" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35550329269571823</v>
+        <v>0.45412164774721309</v>
       </c>
       <c r="O4" s="17">
         <v>8</v>
@@ -1468,25 +1467,25 @@
       </c>
       <c r="F5" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G5" s="15" t="str">
         <f ca="1">IF(COUNTIF(E$2:E5,E5)=1,F5,LOOKUP(1,0/(E$1:E4=E5),G$1:G4)&amp;","&amp;F5)</f>
-        <v>1,5,9,6</v>
+        <v>11,10,0,13</v>
       </c>
       <c r="I5" s="15">
         <v>3</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48869866054168409</v>
+        <v>0.11749749333260895</v>
       </c>
       <c r="L5" s="15">
         <v>3</v>
       </c>
       <c r="M5" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62937592589192737</v>
+        <v>0.2195952367955526</v>
       </c>
       <c r="O5" s="17">
         <v>12</v>
@@ -1514,14 +1513,14 @@
       </c>
       <c r="J6" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19102129523602163</v>
+        <v>0.48489178985131798</v>
       </c>
       <c r="L6" s="15">
         <v>4</v>
       </c>
       <c r="M6" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93046077171672092</v>
+        <v>0.75703073792553854</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1537,25 +1536,25 @@
       </c>
       <c r="F7" s="15">
         <f ca="1">INDEX($L$2:$L$17,RANK(M2,$M$2:$M$17))</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G7" s="15">
         <f ca="1">IF(COUNTIF(E$2:E7,E7)=1,F7,LOOKUP(1,0/(E$1:E6=E7),G$1:G6)&amp;","&amp;F7)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I7" s="15">
         <v>5</v>
       </c>
       <c r="J7" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44611483787899964</v>
+        <v>0.80639201520232395</v>
       </c>
       <c r="L7" s="15">
         <v>5</v>
       </c>
       <c r="M7" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18441532591893506</v>
+        <v>0.48292555158897843</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1571,25 +1570,25 @@
       </c>
       <c r="F8" s="15">
         <f t="shared" ref="F8:F10" ca="1" si="4">INDEX($L$2:$L$17,RANK(M3,$M$2:$M$17))</f>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G8" s="15" t="str">
         <f ca="1">IF(COUNTIF(E$2:E8,E8)=1,F8,LOOKUP(1,0/(E$1:E7=E8),G$1:G7)&amp;","&amp;F8)</f>
-        <v>10,4</v>
+        <v>15,13</v>
       </c>
       <c r="I8" s="15">
         <v>6</v>
       </c>
       <c r="J8" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66107646052514768</v>
+        <v>0.95744255776416587</v>
       </c>
       <c r="L8" s="15">
         <v>6</v>
       </c>
       <c r="M8" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80912763151719413</v>
+        <v>0.52952431071372441</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1605,25 +1604,25 @@
       </c>
       <c r="F9" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="15" t="str">
         <f ca="1">IF(COUNTIF(E$2:E9,E9)=1,F9,LOOKUP(1,0/(E$1:E8=E9),G$1:G8)&amp;","&amp;F9)</f>
-        <v>10,4,12</v>
+        <v>15,13,11</v>
       </c>
       <c r="I9" s="15">
         <v>7</v>
       </c>
       <c r="J9" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69349321828800359</v>
+        <v>0.35855548215905586</v>
       </c>
       <c r="L9" s="15">
         <v>7</v>
       </c>
       <c r="M9" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23701786932924118</v>
+        <v>0.91904078820661506</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1639,25 +1638,25 @@
       </c>
       <c r="F10" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G10" s="15" t="str">
         <f ca="1">IF(COUNTIF(E$2:E10,E10)=1,F10,LOOKUP(1,0/(E$1:E9=E10),G$1:G9)&amp;","&amp;F10)</f>
-        <v>10,4,12,9</v>
+        <v>15,13,11,14</v>
       </c>
       <c r="I10" s="15">
         <v>8</v>
       </c>
       <c r="J10" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92534355499114973</v>
+        <v>4.8457900082462979E-2</v>
       </c>
       <c r="L10" s="15">
         <v>8</v>
       </c>
       <c r="M10" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45104332374560063</v>
+        <v>0.81380531135181178</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1673,14 +1672,14 @@
       </c>
       <c r="J11" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58645746409042165</v>
+        <v>4.0395894638662888E-3</v>
       </c>
       <c r="L11" s="15">
         <v>9</v>
       </c>
       <c r="M11" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76047771608043435</v>
+        <v>0.84054834698445446</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1699,14 +1698,14 @@
       </c>
       <c r="J12" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38797883889297413</v>
+        <v>0.53001031618966743</v>
       </c>
       <c r="L12" s="15">
         <v>10</v>
       </c>
       <c r="M12" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84279989974102987</v>
+        <v>0.54972745238627285</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1718,14 +1717,14 @@
       </c>
       <c r="J13" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2527683510966473</v>
+        <v>0.5617322712442242</v>
       </c>
       <c r="L13" s="15">
         <v>11</v>
       </c>
       <c r="M13" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63168307238291421</v>
+        <v>0.961119038111371</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1737,14 +1736,14 @@
       </c>
       <c r="J14" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10854522242111209</v>
+        <v>0.24010648994199957</v>
       </c>
       <c r="L14" s="15">
         <v>12</v>
       </c>
       <c r="M14" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>9.3693898386326135E-2</v>
+        <v>0.6992219940406097</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1756,14 +1755,14 @@
       </c>
       <c r="J15" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>5.5723443786280802E-3</v>
+        <v>0.82575902684189517</v>
       </c>
       <c r="L15" s="15">
         <v>13</v>
       </c>
       <c r="M15" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93582812692536099</v>
+        <v>0.49904073222602208</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1772,14 +1771,14 @@
       </c>
       <c r="J16" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0003898196636718E-2</v>
+        <v>0.44410759464349381</v>
       </c>
       <c r="L16" s="15">
         <v>14</v>
       </c>
       <c r="M16" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85152013469894849</v>
+        <v>0.35523417585714456</v>
       </c>
     </row>
     <row r="17" spans="5:13">
@@ -1791,14 +1790,14 @@
       </c>
       <c r="J17" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>6.5509824399752059E-3</v>
+        <v>0.39785940590028257</v>
       </c>
       <c r="L17" s="15">
         <v>15</v>
       </c>
       <c r="M17" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70864197515218963</v>
+        <v>0.67201998087647552</v>
       </c>
     </row>
     <row r="18" spans="5:13">
@@ -1858,7 +1857,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.125" defaultRowHeight="15.75"/>
